--- a/biology/Zoologie/Isarachnanthus_maderensis/Isarachnanthus_maderensis.xlsx
+++ b/biology/Zoologie/Isarachnanthus_maderensis/Isarachnanthus_maderensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isarachnanthus maderensis est une espèce de cnidaires de la famille des Arachnactidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isarachnanthus maderensis est une espèce de cnidaires de la famille des Arachnactidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description de 1861, l'auteur indique que le spécimen en sa possession mesure environ 115 mm une fois déplié, mais, qu'en cas de contact, il se contracte et ne mesure plus que 45 mm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description de 1861, l'auteur indique que le spécimen en sa possession mesure environ 115 mm une fois déplié, mais, qu'en cas de contact, il se contracte et ne mesure plus que 45 mm.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Isarachnanthus maderensis (Johnson, 1861)[1].
-L'espèce a été initialement classée dans le genre Saccanthus sous le protonyme Saccanthus maderensis Johnson, 1861[1],[2].
-Isarachnanthus maderensis a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Isarachnanthus maderensis (Johnson, 1861).
+L'espèce a été initialement classée dans le genre Saccanthus sous le protonyme Saccanthus maderensis Johnson, 1861,.
+Isarachnanthus maderensis a pour synonymes :
 Cerianthus maderensis (Johnson, 1861)
 Isarachnanthus cruzi Brito, 1986
 Saccanthus maderensis Johnson, 1861</t>
@@ -577,9 +593,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, composée de mader[e] et du suffixe latin -ensis, « qui vit dans, qui habite », fait référence à l'île de Madère où cette espèce a été découverte, et plus précisément « dans le fond d'un trou d'eau dans les rochers près de Funchal »[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, composée de mader[e] et du suffixe latin -ensis, « qui vit dans, qui habite », fait référence à l'île de Madère où cette espèce a été découverte, et plus précisément « dans le fond d'un trou d'eau dans les rochers près de Funchal ».
 </t>
         </is>
       </c>
@@ -609,6 +627,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
